--- a/design/Sample.xlsx
+++ b/design/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB2AB9-D8C6-422A-B79D-62494210C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22B67E5-EF3F-4AD7-925D-9BD32EDEDAB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="#List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5, 4, 3, 2, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PointList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,1), (2,2), (3,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3,3), (2, 2), (1, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnumList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,11 +63,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Left, Top, Right, Bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left, Bottom</t>
+    <t>ConstValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const:Portal:Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const:Portal:Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1)
+(2,2)
+(3,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,3)
+(2, 2)
+(1, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left
+Bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+2
+3
+4
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5
+4
+3
+2
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,9 +163,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,31 +495,38 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
+      <c r="D1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,29 +534,38 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
